--- a/KarginScales/Content/D.xlsx
+++ b/KarginScales/Content/D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="15" windowWidth="8445" windowHeight="4350" tabRatio="811" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="15" windowWidth="8445" windowHeight="4350" tabRatio="811" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Полистирол-1" sheetId="1" r:id="rId1"/>
@@ -19,103 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
-    <t>80.587276</t>
+    <t>Температура</t>
   </si>
   <si>
-    <t>0.44776119</t>
-  </si>
-  <si>
-    <t>82.544861</t>
-  </si>
-  <si>
-    <t>1.3432836</t>
-  </si>
-  <si>
-    <t>87.112561</t>
-  </si>
-  <si>
-    <t>3.9552239</t>
-  </si>
-  <si>
-    <t>90.04894</t>
-  </si>
-  <si>
-    <t>6.4179104</t>
-  </si>
-  <si>
-    <t>92.33279</t>
-  </si>
-  <si>
-    <t>8.0597015</t>
-  </si>
-  <si>
-    <t>94.616639</t>
-  </si>
-  <si>
-    <t>9.3283582</t>
-  </si>
-  <si>
-    <t>99.510604</t>
-  </si>
-  <si>
-    <t>10.671642</t>
-  </si>
-  <si>
-    <t>104.40457</t>
-  </si>
-  <si>
-    <t>11.716418</t>
-  </si>
-  <si>
-    <t>109.29853</t>
-  </si>
-  <si>
-    <t>13.059701</t>
-  </si>
-  <si>
-    <t>112.23491</t>
-  </si>
-  <si>
-    <t>14.626866</t>
-  </si>
-  <si>
-    <t>114.1925</t>
-  </si>
-  <si>
-    <t>16.865672</t>
-  </si>
-  <si>
-    <t>115.49755</t>
-  </si>
-  <si>
-    <t>20.074627</t>
-  </si>
-  <si>
-    <t>116.80261</t>
-  </si>
-  <si>
-    <t>23.880597</t>
-  </si>
-  <si>
-    <t>117.45514</t>
-  </si>
-  <si>
-    <t>26.791045</t>
-  </si>
-  <si>
-    <t>117.7814</t>
-  </si>
-  <si>
-    <t>29.776119</t>
+    <t>Гамма</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -126,6 +42,12 @@
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -149,13 +71,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,260 +385,270 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>83.855931999999996</v>
-      </c>
-      <c r="B1">
-        <v>0.3649635</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>96.016948999999997</v>
+        <v>83.855931999999996</v>
       </c>
       <c r="B2">
-        <v>1.3284672</v>
+        <v>0.3649635</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>102.54237000000001</v>
+        <v>96.016948999999997</v>
       </c>
       <c r="B3">
-        <v>2.2043796000000002</v>
+        <v>1.3284672</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>107.58475</v>
+        <v>102.54237000000001</v>
       </c>
       <c r="B4">
-        <v>3.3722628000000001</v>
+        <v>2.2043796000000002</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>108.77119</v>
+        <v>107.58475</v>
       </c>
       <c r="B5">
-        <v>4.3357663999999998</v>
+        <v>3.3722628000000001</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>109.95762999999999</v>
+        <v>108.77119</v>
       </c>
       <c r="B6">
-        <v>5.2992701000000002</v>
+        <v>4.3357663999999998</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>112.92373000000001</v>
+        <v>109.95762999999999</v>
       </c>
       <c r="B7">
-        <v>5.9416057999999996</v>
+        <v>5.2992701000000002</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>115.88983</v>
+        <v>112.92373000000001</v>
       </c>
       <c r="B8">
-        <v>6.8759123999999998</v>
+        <v>5.9416057999999996</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>120.93219999999999</v>
+        <v>115.88983</v>
       </c>
       <c r="B9">
-        <v>7.6934307000000004</v>
+        <v>6.8759123999999998</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>126.56780000000001</v>
+        <v>120.93219999999999</v>
       </c>
       <c r="B10">
-        <v>8.1021897999999997</v>
+        <v>7.6934307000000004</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>136.65253999999999</v>
+        <v>126.56780000000001</v>
       </c>
       <c r="B11">
-        <v>8.2481752000000004</v>
+        <v>8.1021897999999997</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>142.88136</v>
+        <v>136.65253999999999</v>
       </c>
       <c r="B12">
-        <v>8.0145985</v>
+        <v>8.2481752000000004</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>148.51695000000001</v>
+        <v>142.88136</v>
       </c>
       <c r="B13">
-        <v>7.0218977999999996</v>
+        <v>8.0145985</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>150</v>
+        <v>148.51695000000001</v>
       </c>
       <c r="B14">
-        <v>6.2043796000000002</v>
+        <v>7.0218977999999996</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>152.66949</v>
+        <v>150</v>
       </c>
       <c r="B15">
-        <v>5.4160583999999998</v>
+        <v>6.2043796000000002</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>153.85593</v>
+        <v>152.66949</v>
       </c>
       <c r="B16">
-        <v>4.4233577000000004</v>
+        <v>5.4160583999999998</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>158.00846999999999</v>
+        <v>153.85593</v>
       </c>
       <c r="B17">
-        <v>3.4306568999999998</v>
+        <v>4.4233577000000004</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>166.90678</v>
+        <v>158.00846999999999</v>
       </c>
       <c r="B18">
-        <v>2.8467153000000001</v>
+        <v>3.4306568999999998</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>173.72881000000001</v>
+        <v>166.90678</v>
       </c>
       <c r="B19">
-        <v>2.5839416000000002</v>
+        <v>2.8467153000000001</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>180.55085</v>
+        <v>173.72881000000001</v>
       </c>
       <c r="B20">
-        <v>2.3211678999999998</v>
+        <v>2.5839416000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>187.07626999999999</v>
+        <v>180.55085</v>
       </c>
       <c r="B21">
-        <v>2.2043796000000002</v>
+        <v>2.3211678999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>196.86440999999999</v>
+        <v>187.07626999999999</v>
       </c>
       <c r="B22">
-        <v>2.1167883000000001</v>
+        <v>2.2043796000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>206.65253999999999</v>
+        <v>196.86440999999999</v>
       </c>
       <c r="B23">
-        <v>2.2627736999999999</v>
+        <v>2.1167883000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>211.69492</v>
+        <v>206.65253999999999</v>
       </c>
       <c r="B24">
-        <v>2.5547445</v>
+        <v>2.2627736999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>214.66102000000001</v>
+        <v>211.69492</v>
       </c>
       <c r="B25">
-        <v>3.1094890999999998</v>
+        <v>2.5547445</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>214.66102000000001</v>
+      </c>
+      <c r="B26">
+        <v>3.1094890999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>216.44067999999999</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>11.080292</v>
       </c>
     </row>
@@ -730,7 +665,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -739,124 +676,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>80.593220000000002</v>
-      </c>
-      <c r="B1">
-        <v>0.16058394000000001</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>106.69492</v>
+        <v>80.593220000000002</v>
       </c>
       <c r="B2">
-        <v>0.18978101999999999</v>
+        <v>0.16058394000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>113.22033999999999</v>
+        <v>106.69492</v>
       </c>
       <c r="B3">
-        <v>0.21897810000000001</v>
+        <v>0.18978101999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>125.08475</v>
+        <v>113.22033999999999</v>
       </c>
       <c r="B4">
-        <v>0.24817518</v>
+        <v>0.21897810000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>147.03389999999999</v>
+        <v>125.08475</v>
       </c>
       <c r="B5">
-        <v>0.21897810000000001</v>
+        <v>0.24817518</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>166.01695000000001</v>
+        <v>147.03389999999999</v>
       </c>
       <c r="B6">
-        <v>0.33576642000000001</v>
+        <v>0.21897810000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>191.52542</v>
+        <v>166.01695000000001</v>
       </c>
       <c r="B7">
-        <v>0.3649635</v>
+        <v>0.33576642000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>206.05932000000001</v>
+        <v>191.52542</v>
       </c>
       <c r="B8">
-        <v>0.54014598999999996</v>
+        <v>0.3649635</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>214.06780000000001</v>
+        <v>206.05932000000001</v>
       </c>
       <c r="B9">
-        <v>0.89051095000000002</v>
+        <v>0.54014598999999996</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>218.81356</v>
+        <v>214.06780000000001</v>
       </c>
       <c r="B10">
-        <v>1.2992701</v>
+        <v>0.89051095000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>222.66949</v>
+        <v>218.81356</v>
       </c>
       <c r="B11">
-        <v>1.8832116999999999</v>
+        <v>1.2992701</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>224.44915</v>
+        <v>222.66949</v>
       </c>
       <c r="B12">
-        <v>2.5255474000000002</v>
+        <v>1.8832116999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>224.74575999999999</v>
+        <v>224.44915</v>
       </c>
       <c r="B13">
-        <v>3.2846715</v>
+        <v>2.5255474000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>224.74575999999999</v>
+      </c>
+      <c r="B14">
+        <v>3.2846715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>225.63559000000001</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>10.846715</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -879,132 +816,144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>80.587276000000003</v>
+      </c>
+      <c r="B2">
+        <v>0.44776118999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>82.544860999999997</v>
+      </c>
+      <c r="B3">
+        <v>1.3432835999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="A4">
+        <v>87.112560999999999</v>
+      </c>
+      <c r="B4">
+        <v>3.9552239</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="A5">
+        <v>90.048940000000002</v>
+      </c>
+      <c r="B5">
+        <v>6.4179104000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="A6">
+        <v>92.332790000000003</v>
+      </c>
+      <c r="B6">
+        <v>8.0597014999999992</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="A7">
+        <v>94.616639000000006</v>
+      </c>
+      <c r="B7">
+        <v>9.3283582000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+      <c r="A8">
+        <v>99.510604000000001</v>
+      </c>
+      <c r="B8">
+        <v>10.671642</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="A9">
+        <v>104.40457000000001</v>
+      </c>
+      <c r="B9">
+        <v>11.716418000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="A10">
+        <v>109.29853</v>
+      </c>
+      <c r="B10">
+        <v>13.059701</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="A11">
+        <v>112.23491</v>
+      </c>
+      <c r="B11">
+        <v>14.626866</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+      <c r="A12">
+        <v>114.1925</v>
+      </c>
+      <c r="B12">
+        <v>16.865672</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+      <c r="A13">
+        <v>115.49755</v>
+      </c>
+      <c r="B13">
+        <v>20.074627</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
+      <c r="A14">
+        <v>116.80261</v>
+      </c>
+      <c r="B14">
+        <v>23.880597000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="A15">
+        <v>117.45514</v>
+      </c>
+      <c r="B15">
+        <v>26.791045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>117.7814</v>
+      </c>
+      <c r="B16">
+        <v>29.776119000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1016,137 +965,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>80.261010999999996</v>
-      </c>
-      <c r="B1">
-        <v>0.59701493000000005</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>82.871126000000004</v>
+        <v>80.261010999999996</v>
       </c>
       <c r="B2">
-        <v>1.7164178999999999</v>
+        <v>0.59701493000000005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>87.438824999999994</v>
+        <v>82.871126000000004</v>
       </c>
       <c r="B3">
-        <v>4.4776119000000003</v>
+        <v>1.7164178999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>91.027732</v>
+        <v>87.438824999999994</v>
       </c>
       <c r="B4">
-        <v>6.5671641999999997</v>
+        <v>4.4776119000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>95.921696999999995</v>
+        <v>91.027732</v>
       </c>
       <c r="B5">
-        <v>7.9104478</v>
+        <v>6.5671641999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>103.09951</v>
+        <v>95.921696999999995</v>
       </c>
       <c r="B6">
-        <v>8.8059700999999997</v>
+        <v>7.9104478</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>111.90864999999999</v>
+        <v>103.09951</v>
       </c>
       <c r="B7">
-        <v>9.3283582000000003</v>
+        <v>8.8059700999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>120.39152</v>
+        <v>111.90864999999999</v>
       </c>
       <c r="B8">
-        <v>10.074627</v>
+        <v>9.3283582000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>124.30669</v>
+        <v>120.39152</v>
       </c>
       <c r="B9">
-        <v>11.044776000000001</v>
+        <v>10.074627</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>127.24307</v>
+        <v>124.30669</v>
       </c>
       <c r="B10">
-        <v>12.164179000000001</v>
+        <v>11.044776000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>132.13703000000001</v>
+        <v>127.24307</v>
       </c>
       <c r="B11">
-        <v>14.850745999999999</v>
+        <v>12.164179000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>135.72594000000001</v>
+        <v>132.13703000000001</v>
       </c>
       <c r="B12">
-        <v>17.910447999999999</v>
+        <v>14.850745999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>139.64111</v>
+        <v>135.72594000000001</v>
       </c>
       <c r="B13">
-        <v>21.119402999999998</v>
+        <v>17.910447999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>143.23002</v>
+        <v>139.64111</v>
       </c>
       <c r="B14">
-        <v>24.328358000000001</v>
+        <v>21.119402999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>146.16639000000001</v>
+        <v>143.23002</v>
       </c>
       <c r="B15">
-        <v>26.865672</v>
+        <v>24.328358000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>146.16639000000001</v>
+      </c>
+      <c r="B16">
+        <v>26.865672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>149.42903999999999</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>29.701492999999999</v>
       </c>
     </row>
@@ -1159,137 +1122,151 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>79.608483000000007</v>
-      </c>
-      <c r="B1">
-        <v>0.67164179000000002</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>83.197389999999999</v>
+        <v>79.608483000000007</v>
       </c>
       <c r="B2">
-        <v>2.0895522</v>
+        <v>0.67164179000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>87.765090000000001</v>
+        <v>83.197389999999999</v>
       </c>
       <c r="B3">
-        <v>4.4776119000000003</v>
+        <v>2.0895522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>92.006524999999996</v>
+        <v>87.765090000000001</v>
       </c>
       <c r="B4">
-        <v>6.9402984999999999</v>
+        <v>4.4776119000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>96.900488999999993</v>
+        <v>92.006524999999996</v>
       </c>
       <c r="B5">
-        <v>8.0597014999999992</v>
+        <v>6.9402984999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>103.09951</v>
+        <v>96.900488999999993</v>
       </c>
       <c r="B6">
-        <v>8.9552239</v>
+        <v>8.0597014999999992</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>110.92985</v>
+        <v>103.09951</v>
       </c>
       <c r="B7">
-        <v>9.7014925000000005</v>
+        <v>8.9552239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>120.71778</v>
+        <v>110.92985</v>
       </c>
       <c r="B8">
-        <v>10.149254000000001</v>
+        <v>9.7014925000000005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>130.83197000000001</v>
+        <v>120.71778</v>
       </c>
       <c r="B9">
-        <v>10.671642</v>
+        <v>10.149254000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>138.00979000000001</v>
+        <v>130.83197000000001</v>
       </c>
       <c r="B10">
-        <v>11.343284000000001</v>
+        <v>10.671642</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>144.20881</v>
+        <v>138.00979000000001</v>
       </c>
       <c r="B11">
-        <v>12.313433</v>
+        <v>11.343284000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>149.75530000000001</v>
+        <v>144.20881</v>
       </c>
       <c r="B12">
-        <v>14.029851000000001</v>
+        <v>12.313433</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>154.97552999999999</v>
+        <v>149.75530000000001</v>
       </c>
       <c r="B13">
-        <v>16.940299</v>
+        <v>14.029851000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>159.54322999999999</v>
+        <v>154.97552999999999</v>
       </c>
       <c r="B14">
-        <v>20.149253999999999</v>
+        <v>16.940299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>163.78467000000001</v>
+        <v>159.54322999999999</v>
       </c>
       <c r="B15">
-        <v>23.880597000000002</v>
+        <v>20.149253999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>163.78467000000001</v>
+      </c>
+      <c r="B16">
+        <v>23.880597000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>169.65742</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>28.955224000000001</v>
       </c>
     </row>
@@ -1302,127 +1279,142 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>81.892332999999994</v>
-      </c>
-      <c r="B1">
-        <v>0.67164179000000002</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>85.48124</v>
+        <v>81.892332999999994</v>
       </c>
       <c r="B2">
-        <v>2.6119403000000001</v>
+        <v>0.67164179000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>89.396411000000001</v>
+        <v>85.48124</v>
       </c>
       <c r="B3">
-        <v>4.1791045000000002</v>
+        <v>2.6119403000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>97.226754</v>
+        <v>89.396411000000001</v>
       </c>
       <c r="B4">
-        <v>6.2686567000000002</v>
+        <v>4.1791045000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>106.68841999999999</v>
+        <v>97.226754</v>
       </c>
       <c r="B5">
-        <v>7.6119402999999997</v>
+        <v>6.2686567000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>121.04405</v>
+        <v>106.68841999999999</v>
       </c>
       <c r="B6">
-        <v>8.7313433000000007</v>
+        <v>7.6119402999999997</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>133.76835</v>
+        <v>121.04405</v>
       </c>
       <c r="B7">
-        <v>9.7014925000000005</v>
+        <v>8.7313433000000007</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>142.25121999999999</v>
+        <v>133.76835</v>
       </c>
       <c r="B8">
-        <v>10.522387999999999</v>
+        <v>9.7014925000000005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>149.75530000000001</v>
+        <v>142.25121999999999</v>
       </c>
       <c r="B9">
-        <v>11.791045</v>
+        <v>10.522387999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>155.95432</v>
+        <v>149.75530000000001</v>
       </c>
       <c r="B10">
-        <v>13.880597</v>
+        <v>11.791045</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>162.47961000000001</v>
+        <v>155.95432</v>
       </c>
       <c r="B11">
-        <v>17.313433</v>
+        <v>13.880597</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>166.72103999999999</v>
+        <v>162.47961000000001</v>
       </c>
       <c r="B12">
-        <v>21.119402999999998</v>
+        <v>17.313433</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>172.26754</v>
+        <v>166.72103999999999</v>
       </c>
       <c r="B13">
-        <v>25.820896000000001</v>
+        <v>21.119402999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>172.26754</v>
+      </c>
+      <c r="B14">
+        <v>25.820896000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>175.85643999999999</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>